--- a/metadata/Survey Scales.xlsx
+++ b/metadata/Survey Scales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://056gc-my.sharepoint.com/personal/margrave_tbs-sct_gc_ca/Documents/Martin Gravel/AI Agent/PSES GPT - Public Service/API/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26036958-D639-4EA2-B249-A9A5E4F5FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{26036958-D639-4EA2-B249-A9A5E4F5FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C4ED5A-6531-42A2-A25E-C0B094E73F08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6A0371-13D4-4C33-9BFD-3CC7622F4C64}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>Q56</t>
   </si>
   <si>
-    <t>Q57_1</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>Unsure</t>
   </si>
   <si>
-    <t>Q57_2</t>
-  </si>
-  <si>
     <t>Yes, to retire</t>
   </si>
   <si>
@@ -819,6 +813,12 @@
   </si>
   <si>
     <t>Anscount</t>
+  </si>
+  <si>
+    <t>D57_1</t>
+  </si>
+  <si>
+    <t>D57_2</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95C6B46-A5DA-460D-8CD3-3240D03DB1C3}">
   <dimension ref="A1:K696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1308,34 +1310,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3650,16 +3652,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
         <v>91</v>
-      </c>
-      <c r="D68" t="s">
-        <v>92</v>
       </c>
       <c r="K68" t="s">
         <v>11</v>
@@ -3667,25 +3669,25 @@
     </row>
     <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -3696,13 +3698,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s">
         <v>11</v>
@@ -3710,13 +3712,13 @@
     </row>
     <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3731,13 +3733,13 @@
     </row>
     <row r="72" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -3752,13 +3754,13 @@
     </row>
     <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -3773,13 +3775,13 @@
     </row>
     <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -3794,13 +3796,13 @@
     </row>
     <row r="75" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -3815,13 +3817,13 @@
     </row>
     <row r="76" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -3836,13 +3838,13 @@
     </row>
     <row r="77" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -3857,13 +3859,13 @@
     </row>
     <row r="78" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -3878,13 +3880,13 @@
     </row>
     <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -3899,13 +3901,13 @@
     </row>
     <row r="80" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -3920,13 +3922,13 @@
     </row>
     <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -3941,13 +3943,13 @@
     </row>
     <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -3962,13 +3964,13 @@
     </row>
     <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -3983,13 +3985,13 @@
     </row>
     <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -4004,13 +4006,13 @@
     </row>
     <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -4025,13 +4027,13 @@
     </row>
     <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -4046,13 +4048,13 @@
     </row>
     <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -4067,13 +4069,13 @@
     </row>
     <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -4088,13 +4090,13 @@
     </row>
     <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -4109,13 +4111,13 @@
     </row>
     <row r="90" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -4130,13 +4132,13 @@
     </row>
     <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -4151,13 +4153,13 @@
     </row>
     <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -4172,13 +4174,13 @@
     </row>
     <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -4193,13 +4195,13 @@
     </row>
     <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -4214,13 +4216,13 @@
     </row>
     <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -4235,13 +4237,13 @@
     </row>
     <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -4256,13 +4258,13 @@
     </row>
     <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -4277,13 +4279,13 @@
     </row>
     <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -4298,13 +4300,13 @@
     </row>
     <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -4319,13 +4321,13 @@
     </row>
     <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -4340,13 +4342,13 @@
     </row>
     <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -4361,13 +4363,13 @@
     </row>
     <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -4382,13 +4384,13 @@
     </row>
     <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -4403,13 +4405,13 @@
     </row>
     <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
@@ -4424,13 +4426,13 @@
     </row>
     <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -4445,13 +4447,13 @@
     </row>
     <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
@@ -4466,13 +4468,13 @@
     </row>
     <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -4487,13 +4489,13 @@
     </row>
     <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -4508,13 +4510,13 @@
     </row>
     <row r="109" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
@@ -4529,13 +4531,13 @@
     </row>
     <row r="110" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -4550,13 +4552,13 @@
     </row>
     <row r="111" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
@@ -4571,13 +4573,13 @@
     </row>
     <row r="112" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
@@ -4592,13 +4594,13 @@
     </row>
     <row r="113" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
@@ -4613,13 +4615,13 @@
     </row>
     <row r="114" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
@@ -4634,13 +4636,13 @@
     </row>
     <row r="115" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
@@ -4655,7 +4657,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -4690,7 +4692,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -4725,13 +4727,13 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K118" t="s">
         <v>11</v>
@@ -4739,13 +4741,13 @@
     </row>
     <row r="119" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -4760,13 +4762,13 @@
     </row>
     <row r="120" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -4781,13 +4783,13 @@
     </row>
     <row r="121" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -4802,13 +4804,13 @@
     </row>
     <row r="122" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -4823,13 +4825,13 @@
     </row>
     <row r="123" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -4844,13 +4846,13 @@
     </row>
     <row r="124" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -4865,13 +4867,13 @@
     </row>
     <row r="125" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
@@ -4886,13 +4888,13 @@
     </row>
     <row r="126" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -4907,13 +4909,13 @@
     </row>
     <row r="127" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -4928,13 +4930,13 @@
     </row>
     <row r="128" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -4949,13 +4951,13 @@
     </row>
     <row r="129" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
@@ -4970,13 +4972,13 @@
     </row>
     <row r="130" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -4991,13 +4993,13 @@
     </row>
     <row r="131" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -5012,13 +5014,13 @@
     </row>
     <row r="132" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
@@ -5033,13 +5035,13 @@
     </row>
     <row r="133" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
@@ -5054,13 +5056,13 @@
     </row>
     <row r="134" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
@@ -5075,13 +5077,13 @@
     </row>
     <row r="135" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -5096,13 +5098,13 @@
     </row>
     <row r="136" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
@@ -5117,13 +5119,13 @@
     </row>
     <row r="137" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -5138,13 +5140,13 @@
     </row>
     <row r="138" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
@@ -5159,13 +5161,13 @@
     </row>
     <row r="139" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -5180,13 +5182,13 @@
     </row>
     <row r="140" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -5201,13 +5203,13 @@
     </row>
     <row r="141" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -5222,13 +5224,13 @@
     </row>
     <row r="142" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -5243,13 +5245,13 @@
     </row>
     <row r="143" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
@@ -5264,13 +5266,13 @@
     </row>
     <row r="144" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
@@ -5285,13 +5287,13 @@
     </row>
     <row r="145" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
@@ -5306,13 +5308,13 @@
     </row>
     <row r="146" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -5327,13 +5329,13 @@
     </row>
     <row r="147" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -5348,13 +5350,13 @@
     </row>
     <row r="148" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
@@ -5369,13 +5371,13 @@
     </row>
     <row r="149" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -5390,13 +5392,13 @@
     </row>
     <row r="150" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
@@ -5411,13 +5413,13 @@
     </row>
     <row r="151" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
@@ -5432,13 +5434,13 @@
     </row>
     <row r="152" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
@@ -5453,13 +5455,13 @@
     </row>
     <row r="153" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -5474,13 +5476,13 @@
     </row>
     <row r="154" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
@@ -5495,13 +5497,13 @@
     </row>
     <row r="155" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
@@ -5516,13 +5518,13 @@
     </row>
     <row r="156" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -5537,13 +5539,13 @@
     </row>
     <row r="157" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
@@ -5558,13 +5560,13 @@
     </row>
     <row r="158" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
@@ -5579,13 +5581,13 @@
     </row>
     <row r="159" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
@@ -5600,13 +5602,13 @@
     </row>
     <row r="160" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
@@ -5621,13 +5623,13 @@
     </row>
     <row r="161" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
@@ -5642,13 +5644,13 @@
     </row>
     <row r="162" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
@@ -5663,13 +5665,13 @@
     </row>
     <row r="163" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -5684,7 +5686,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -5719,7 +5721,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -5754,7 +5756,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -5789,7 +5791,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B167" t="s">
         <v>68</v>
@@ -5824,7 +5826,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B168" t="s">
         <v>68</v>
@@ -5859,7 +5861,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B169" t="s">
         <v>68</v>
@@ -5894,7 +5896,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B170" t="s">
         <v>68</v>
@@ -5929,7 +5931,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B171" t="s">
         <v>68</v>
@@ -5964,7 +5966,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B172" t="s">
         <v>68</v>
@@ -5999,7 +6001,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B173" t="s">
         <v>68</v>
@@ -6034,7 +6036,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B174" t="s">
         <v>68</v>
@@ -6069,7 +6071,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B175" t="s">
         <v>68</v>
@@ -6104,7 +6106,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B176" t="s">
         <v>68</v>
@@ -6139,7 +6141,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B177" t="s">
         <v>68</v>
@@ -6174,7 +6176,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B178" t="s">
         <v>68</v>
@@ -6209,7 +6211,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
         <v>68</v>
@@ -6244,7 +6246,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>68</v>
@@ -6279,7 +6281,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B181" t="s">
         <v>68</v>
@@ -6314,7 +6316,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B182" t="s">
         <v>68</v>
@@ -6349,7 +6351,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B183" t="s">
         <v>68</v>
@@ -6384,7 +6386,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B184" t="s">
         <v>68</v>
@@ -6419,7 +6421,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B185" t="s">
         <v>68</v>
@@ -6454,7 +6456,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B186" t="s">
         <v>68</v>
@@ -6489,7 +6491,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s">
         <v>68</v>
@@ -6524,7 +6526,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s">
         <v>68</v>
@@ -6559,7 +6561,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B189" t="s">
         <v>68</v>
@@ -6594,22 +6596,22 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>219</v>
+      </c>
+      <c r="B190" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" t="s">
         <v>221</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>222</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>223</v>
       </c>
-      <c r="D190" t="s">
+      <c r="F190" t="s">
         <v>224</v>
-      </c>
-      <c r="E190" t="s">
-        <v>225</v>
-      </c>
-      <c r="F190" t="s">
-        <v>226</v>
       </c>
       <c r="G190" t="s">
         <v>7</v>
@@ -6629,7 +6631,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B191" t="s">
         <v>35</v>
@@ -6664,7 +6666,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -6699,22 +6701,22 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>227</v>
+      </c>
+      <c r="B193" t="s">
+        <v>228</v>
+      </c>
+      <c r="C193" t="s">
         <v>229</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" t="s">
         <v>230</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
         <v>231</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" t="s">
         <v>232</v>
-      </c>
-      <c r="E193" t="s">
-        <v>233</v>
-      </c>
-      <c r="F193" t="s">
-        <v>234</v>
       </c>
       <c r="K193" t="s">
         <v>11</v>
@@ -6722,7 +6724,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -6757,7 +6759,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -6792,7 +6794,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -6827,7 +6829,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -6862,7 +6864,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -6897,13 +6899,13 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B199" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C199" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K199" t="s">
         <v>11</v>
@@ -6911,13 +6913,13 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K200" t="s">
         <v>11</v>
@@ -6925,13 +6927,13 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C201" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K201" t="s">
         <v>11</v>
@@ -6939,7 +6941,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -6974,7 +6976,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -7009,16 +7011,16 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D204" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
@@ -7029,13 +7031,13 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B205" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C205" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K205" t="s">
         <v>11</v>
@@ -7043,7 +7045,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -7078,7 +7080,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -7113,7 +7115,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B208" t="s">
         <v>68</v>
